--- a/Matriz.xlsx
+++ b/Matriz.xlsx
@@ -1,37 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ConradoGuerra\Documents\Mundin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conra\Documents\Projetos\Mundin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472880AC-EC42-4D9C-8A42-1A9B475FD168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93FB17-810E-41B5-B99D-32FC3E4581E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Atlético GO</t>
-  </si>
-  <si>
-    <t>Athlético</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Juventude</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Avaí</t>
+  </si>
+  <si>
+    <t>Atlético Goianiense</t>
+  </si>
+  <si>
+    <t>América Mineiro</t>
   </si>
 </sst>
 </file>
@@ -60,7 +85,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +96,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -101,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -110,6 +141,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,97 +422,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="49.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3121.86</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1852.9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2855.01</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2324.12</v>
+      </c>
+      <c r="H2">
+        <v>1852.43</v>
+      </c>
+      <c r="I2">
+        <v>1888.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>770.43</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3121.86</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1852.9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2855.01</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2324.12</v>
+      </c>
+      <c r="H3">
+        <v>1852.43</v>
+      </c>
+      <c r="I3">
+        <v>1888.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3121.86</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3121.86</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1402.01</v>
+      </c>
+      <c r="F4" s="3">
+        <v>308.64</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1592.84</v>
+      </c>
+      <c r="H4">
         <v>1402.94</v>
       </c>
-      <c r="E2" s="3">
-        <v>452.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>770.43</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>730.37</v>
-      </c>
-      <c r="E3" s="4">
-        <v>337.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="I4">
+        <v>1259.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1852.9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1852.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1402.01</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1221.3599999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>744.95</v>
+      </c>
+      <c r="H5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I5">
+        <v>669.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2855.01</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2855.01</v>
+      </c>
+      <c r="D6" s="3">
+        <v>308.64</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1221.3599999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1554.54</v>
+      </c>
+      <c r="H6">
+        <v>1226.1300000000001</v>
+      </c>
+      <c r="I6">
+        <v>986.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B7" s="3">
+        <v>2324.12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2324.12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1592.84</v>
+      </c>
+      <c r="E7" s="3">
+        <v>744.95</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1554.54</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>739.67</v>
+      </c>
+      <c r="I7">
+        <v>1378.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1852.43</v>
+      </c>
+      <c r="C8">
+        <v>1852.43</v>
+      </c>
+      <c r="D8">
         <v>1402.94</v>
       </c>
-      <c r="C4" s="3">
-        <v>730.37</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>981.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>452.17</v>
-      </c>
-      <c r="C5" s="4">
-        <v>337.96</v>
-      </c>
-      <c r="D5" s="3">
-        <v>981.33</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F8">
+        <v>1226.1300000000001</v>
+      </c>
+      <c r="G8">
+        <v>739.67</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>671.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1888.44</v>
+      </c>
+      <c r="C9">
+        <v>1888.44</v>
+      </c>
+      <c r="D9">
+        <v>1259.76</v>
+      </c>
+      <c r="E9">
+        <v>669.44</v>
+      </c>
+      <c r="F9">
+        <v>986.51</v>
+      </c>
+      <c r="G9">
+        <v>1378.42</v>
+      </c>
+      <c r="H9">
+        <v>671.39</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>

--- a/Matriz.xlsx
+++ b/Matriz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conra\Documents\Projetos\Mundin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93FB17-810E-41B5-B99D-32FC3E4581E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5612E37-61F2-4641-8261-42354CB438C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
